--- a/classfiers/chatty/svm/chatty-svm-linear-results.xlsx
+++ b/classfiers/chatty/svm/chatty-svm-linear-results.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1363636363636364</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9681159420289855</v>
+        <v>0.9891304347826086</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6153846153846153</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7161616161616161</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.8833333333333332</v>
       </c>
       <c r="D7" t="n">
-        <v>0.771076923076923</v>
+        <v>0.9314285714285713</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9936231884057971</v>
+        <v>0.9978260869565216</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/svm/chatty-svm-linear-results.xlsx
+++ b/classfiers/chatty/svm/chatty-svm-linear-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9971153846153846</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9891304347826086</v>
+        <v>0.9836538461538461</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9729468599033817</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9990338164251208</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9980676328502414</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8833333333333332</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9314285714285713</v>
+        <v>0.6865079365079365</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9978260869565216</v>
+        <v>0.990163507989595</v>
       </c>
     </row>
   </sheetData>
